--- a/XiaoTianSample.xlsx
+++ b/XiaoTianSample.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Release\Rel5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarryQian\Desktop\excel_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="cycle cases" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'cycle cases'!$A$2:$X$58</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="75">
   <si>
     <t>Id</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Chip</t>
-  </si>
-  <si>
-    <t>Board Type</t>
   </si>
   <si>
     <t>Os</t>
@@ -341,8 +338,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -353,6 +350,12 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -496,7 +499,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -512,7 +515,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -587,6 +590,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -622,6 +642,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -800,32 +837,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="4" max="5" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
     <col min="7" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.7265625" customWidth="1"/>
     <col min="12" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="36.28515625" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" customWidth="1"/>
-    <col min="18" max="19" width="25" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="36.26953125" customWidth="1"/>
+    <col min="15" max="15" width="18.1796875" customWidth="1"/>
+    <col min="16" max="16" width="13.26953125" customWidth="1"/>
+    <col min="17" max="17" width="23.453125" customWidth="1"/>
+    <col min="18" max="18" width="25.26953125" customWidth="1"/>
+    <col min="19" max="19" width="18.6328125" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="22" max="24" width="83.28515625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="11.36328125" customWidth="1"/>
+    <col min="22" max="22" width="9.6328125" customWidth="1"/>
+    <col min="23" max="23" width="8.81640625" customWidth="1"/>
+    <col min="24" max="24" width="23.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,3845 +876,3844 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
         <v>5339102</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>5339100</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="R4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>5339097</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>5339185</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X6" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>5339183</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X7" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>5339181</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>5339180</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>5339116</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>5339109</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <v>5339107</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <v>5339075</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>5339072</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="R14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>5339069</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="R15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>5339068</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <v>5339065</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="J17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X17" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <v>5339063</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="J18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>5339060</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q19" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="R19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X19" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
         <v>5339057</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="J20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="R20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <v>5339173</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="J21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X21" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <v>5339171</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="J22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>5339168</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>5339164</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
         <v>5339163</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="J25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X25" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
         <v>5339161</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="J26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X26" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>5339160</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
         <v>5339159</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="J28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X28" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>5339158</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
         <v>5339157</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="J30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X30" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>5339095</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="J31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V31" s="3"/>
       <c r="W31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X31" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>5339093</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V32" s="3"/>
       <c r="W32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B33" s="2">
         <v>5339092</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="R33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X33" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>5339091</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X34" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B35" s="2">
         <v>5339088</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X35" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>5339087</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q36" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="R36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X36" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B37" s="2">
         <v>5339084</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q37" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="R37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X37" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>5339079</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q38" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="R38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V38" s="3"/>
       <c r="W38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X38" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B39" s="2">
         <v>5339146</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X39" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B40" s="2">
         <v>5339144</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V40" s="2"/>
       <c r="W40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X40" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B41" s="2">
         <v>5339142</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q41" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="R41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X41" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B42" s="2">
         <v>5339204</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X42" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>5339203</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="E43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G43" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V43" s="3"/>
       <c r="W43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>5339201</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="E44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G44" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B45" s="2">
         <v>5339200</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X45" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B46" s="2">
         <v>5339198</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X46" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B47" s="2">
         <v>5339155</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q47" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="R47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X47" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B48" s="2">
         <v>5339153</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X48" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X48" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>5339150</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X49" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B50" s="2">
         <v>5339120</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G50" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X50" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
         <v>5339119</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="E51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G51" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q51" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="R51" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X51" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X51" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B52" s="2">
         <v>5339118</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G52" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X52" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X52" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B53" s="2">
         <v>5339196</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="I53" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X53" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
         <v>5339189</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="E54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G54" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V54" s="3"/>
       <c r="W54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X54" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <v>5339187</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="E55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V55" s="3"/>
       <c r="W55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X55" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X55" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B56" s="2">
         <v>5339134</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q56" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="R56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X56" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X56" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B57" s="2">
         <v>5339132</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
       <c r="P57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X57" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X57" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B58" s="2">
         <v>5339128</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
       <c r="P58" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q58" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q58" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="R58" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X58" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X58" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B59" s="3">
         <v>5339187</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G59" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
       <c r="P59" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B60" s="3">
         <v>5339188</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G60" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
       <c r="P60" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R60" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R60" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
         <v>5339187</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
       <c r="P61" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
         <v>5339188</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G62" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
       <c r="P62" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R62" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R62" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
         <v>5339187</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L63" s="4"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
       <c r="P63" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>5339188</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
       <c r="P64" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R64" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R64" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>5339189</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G65" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
         <v>5339190</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G66" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/XiaoTianSample.xlsx
+++ b/XiaoTianSample.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarryQian\Desktop\excel_generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\excel_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="cycle cases" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'cycle cases'!$A$2:$X$58</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="76">
   <si>
     <t>Id</t>
   </si>
@@ -334,11 +334,14 @@
   <si>
     <t>Step to build USB demos on MAC</t>
   </si>
+  <si>
+    <t>Board Type</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,7 +502,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -515,7 +518,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -590,23 +593,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -642,23 +628,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -837,36 +806,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="5" width="11.7265625" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="37.7265625" customWidth="1"/>
+    <col min="11" max="11" width="37.7109375" customWidth="1"/>
     <col min="12" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="36.26953125" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" customWidth="1"/>
-    <col min="16" max="16" width="13.26953125" customWidth="1"/>
-    <col min="17" max="17" width="23.453125" customWidth="1"/>
-    <col min="18" max="18" width="25.26953125" customWidth="1"/>
-    <col min="19" max="19" width="18.6328125" customWidth="1"/>
+    <col min="14" max="14" width="36.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
-    <col min="21" max="21" width="11.36328125" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" customWidth="1"/>
-    <col min="23" max="23" width="8.81640625" customWidth="1"/>
-    <col min="24" max="24" width="23.90625" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" customWidth="1"/>
+    <col min="24" max="24" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,7 +845,9 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
@@ -935,7 +906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>5339102</v>
       </c>
@@ -996,7 +967,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>5339100</v>
       </c>
@@ -1057,7 +1028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>5339097</v>
       </c>
@@ -1118,7 +1089,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>5339185</v>
       </c>
@@ -1179,7 +1150,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5339183</v>
       </c>
@@ -1240,7 +1211,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>5339181</v>
       </c>
@@ -1301,7 +1272,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5339180</v>
       </c>
@@ -1362,7 +1333,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>5339116</v>
       </c>
@@ -1423,7 +1394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>5339109</v>
       </c>
@@ -1484,7 +1455,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>5339107</v>
       </c>
@@ -1545,7 +1516,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>5339075</v>
       </c>
@@ -1606,7 +1577,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>5339072</v>
       </c>
@@ -1667,7 +1638,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>5339069</v>
       </c>
@@ -1728,7 +1699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>5339068</v>
       </c>
@@ -1789,7 +1760,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>5339065</v>
       </c>
@@ -1850,7 +1821,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>5339063</v>
       </c>
@@ -1911,7 +1882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>5339060</v>
       </c>
@@ -1972,7 +1943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>5339057</v>
       </c>
@@ -2033,7 +2004,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>5339173</v>
       </c>
@@ -2094,7 +2065,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>5339171</v>
       </c>
@@ -2155,7 +2126,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>5339168</v>
       </c>
@@ -2216,7 +2187,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>5339164</v>
       </c>
@@ -2277,7 +2248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>5339163</v>
       </c>
@@ -2338,7 +2309,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>5339161</v>
       </c>
@@ -2399,7 +2370,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>5339160</v>
       </c>
@@ -2460,7 +2431,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>5339159</v>
       </c>
@@ -2521,7 +2492,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>5339158</v>
       </c>
@@ -2582,7 +2553,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>5339157</v>
       </c>
@@ -2643,7 +2614,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>5339095</v>
       </c>
@@ -2704,7 +2675,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>5339093</v>
       </c>
@@ -2765,7 +2736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>5339092</v>
       </c>
@@ -2826,7 +2797,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>5339091</v>
       </c>
@@ -2887,7 +2858,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>5339088</v>
       </c>
@@ -2948,7 +2919,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>5339087</v>
       </c>
@@ -3009,7 +2980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>5339084</v>
       </c>
@@ -3070,7 +3041,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>5339079</v>
       </c>
@@ -3131,7 +3102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>5339146</v>
       </c>
@@ -3192,7 +3163,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>5339144</v>
       </c>
@@ -3253,7 +3224,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>5339142</v>
       </c>
@@ -3314,7 +3285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>5339204</v>
       </c>
@@ -3375,7 +3346,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>5339203</v>
       </c>
@@ -3436,7 +3407,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>5339201</v>
       </c>
@@ -3497,7 +3468,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>5339200</v>
       </c>
@@ -3558,7 +3529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>5339198</v>
       </c>
@@ -3619,7 +3590,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>5339155</v>
       </c>
@@ -3680,7 +3651,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>5339153</v>
       </c>
@@ -3741,7 +3712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>5339150</v>
       </c>
@@ -3802,7 +3773,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>5339120</v>
       </c>
@@ -3863,7 +3834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>5339119</v>
       </c>
@@ -3924,7 +3895,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>5339118</v>
       </c>
@@ -3985,7 +3956,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>5339196</v>
       </c>
@@ -4046,7 +4017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>5339189</v>
       </c>
@@ -4107,7 +4078,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>5339187</v>
       </c>
@@ -4168,7 +4139,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>5339134</v>
       </c>
@@ -4229,7 +4200,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>5339132</v>
       </c>
@@ -4290,7 +4261,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>5339128</v>
       </c>
@@ -4351,7 +4322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>5339187</v>
       </c>
@@ -4396,7 +4367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>5339188</v>
       </c>
@@ -4441,7 +4412,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>5339187</v>
       </c>
@@ -4486,7 +4457,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>5339188</v>
       </c>
@@ -4531,7 +4502,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>5339187</v>
       </c>
@@ -4576,7 +4547,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>5339188</v>
       </c>
@@ -4621,7 +4592,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>5339189</v>
       </c>
@@ -4666,7 +4637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>5339190</v>
       </c>
